--- a/mysol/leetcode_import250.xlsx
+++ b/mysol/leetcode_import250.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10413"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA691C74-E8D8-A645-8D7C-EF3AED56EAAC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2D7600B-6CB8-A84D-813A-209156C362CE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5100" yWindow="1760" windowWidth="25800" windowHeight="16840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,9 +31,6 @@
     <t>Done</t>
   </si>
   <si>
-    <t>Remove Element</t>
-  </si>
-  <si>
     <t>Java/JS</t>
   </si>
   <si>
@@ -282,6 +279,9 @@
   <si>
     <t>Leecode 
 Important250:</t>
+  </si>
+  <si>
+    <t>Two Sum</t>
   </si>
 </sst>
 </file>
@@ -738,7 +738,7 @@
   <dimension ref="A1:F205"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="110" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -752,38 +752,38 @@
   <sheetData>
     <row r="1" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="D1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="6" t="s">
-        <v>6</v>
-      </c>
       <c r="E1" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="F1" s="6" t="s">
         <v>81</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A2" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B5" s="5">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>1</v>
+        <v>84</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5" s="10" t="s">
         <v>0</v>
@@ -794,13 +794,13 @@
         <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6" s="10" t="s">
         <v>0</v>
@@ -811,13 +811,13 @@
         <v>80</v>
       </c>
       <c r="C7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F7" s="10" t="s">
         <v>0</v>
@@ -828,13 +828,13 @@
         <v>277</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -842,13 +842,13 @@
         <v>189</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F9" s="10" t="s">
         <v>0</v>
@@ -859,13 +859,13 @@
         <v>41</v>
       </c>
       <c r="C10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -873,13 +873,13 @@
         <v>299</v>
       </c>
       <c r="C11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
@@ -887,13 +887,13 @@
         <v>134</v>
       </c>
       <c r="C12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
@@ -901,13 +901,13 @@
         <v>118</v>
       </c>
       <c r="C13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F13" s="10" t="s">
         <v>0</v>
@@ -918,13 +918,13 @@
         <v>119</v>
       </c>
       <c r="C14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F14" s="10" t="s">
         <v>0</v>
@@ -935,13 +935,13 @@
         <v>169</v>
       </c>
       <c r="C15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F15" s="10" t="s">
         <v>0</v>
@@ -952,13 +952,13 @@
         <v>229</v>
       </c>
       <c r="C16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F16" s="10" t="s">
         <v>0</v>
@@ -969,13 +969,13 @@
         <v>274</v>
       </c>
       <c r="C17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.2">
@@ -983,13 +983,13 @@
         <v>275</v>
       </c>
       <c r="C18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.2">
@@ -997,13 +997,13 @@
         <v>243</v>
       </c>
       <c r="C19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.2">
@@ -1011,13 +1011,13 @@
         <v>244</v>
       </c>
       <c r="C20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.2">
@@ -1025,13 +1025,13 @@
         <v>245</v>
       </c>
       <c r="C21" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.2">
@@ -1039,13 +1039,13 @@
         <v>217</v>
       </c>
       <c r="C22" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F22" s="10" t="s">
         <v>0</v>
@@ -1056,13 +1056,13 @@
         <v>219</v>
       </c>
       <c r="C23" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F23" s="10" t="s">
         <v>0</v>
@@ -1073,13 +1073,13 @@
         <v>220</v>
       </c>
       <c r="C24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F24" s="10" t="s">
         <v>0</v>
@@ -1090,13 +1090,13 @@
         <v>55</v>
       </c>
       <c r="C25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.2">
@@ -1104,13 +1104,13 @@
         <v>45</v>
       </c>
       <c r="C26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.2">
@@ -1118,13 +1118,13 @@
         <v>121</v>
       </c>
       <c r="C27" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F27" s="10" t="s">
         <v>0</v>
@@ -1135,13 +1135,13 @@
         <v>122</v>
       </c>
       <c r="C28" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F28" s="10" t="s">
         <v>0</v>
@@ -1152,13 +1152,13 @@
         <v>123</v>
       </c>
       <c r="C29" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F29" s="10" t="s">
         <v>0</v>
@@ -1169,13 +1169,13 @@
         <v>188</v>
       </c>
       <c r="C30" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F30" s="10" t="s">
         <v>0</v>
@@ -1186,13 +1186,13 @@
         <v>309</v>
       </c>
       <c r="C31" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.2">
@@ -1200,13 +1200,13 @@
         <v>11</v>
       </c>
       <c r="C32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.2">
@@ -1214,13 +1214,13 @@
         <v>42</v>
       </c>
       <c r="C33" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.2">
@@ -1228,13 +1228,13 @@
         <v>334</v>
       </c>
       <c r="C34" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.2">
@@ -1242,13 +1242,13 @@
         <v>128</v>
       </c>
       <c r="C35" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.2">
@@ -1256,13 +1256,13 @@
         <v>164</v>
       </c>
       <c r="C36" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.2">
@@ -1270,13 +1270,13 @@
         <v>287</v>
       </c>
       <c r="C37" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.2">
@@ -1284,13 +1284,13 @@
         <v>135</v>
       </c>
       <c r="C38" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.2">
@@ -1298,13 +1298,13 @@
         <v>330</v>
       </c>
       <c r="C39" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.2">
@@ -1312,13 +1312,13 @@
         <v>4</v>
       </c>
       <c r="C41" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="2:5" x14ac:dyDescent="0.2">
@@ -1326,13 +1326,13 @@
         <v>321</v>
       </c>
       <c r="C42" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="2:5" x14ac:dyDescent="0.2">
@@ -1340,13 +1340,13 @@
         <v>327</v>
       </c>
       <c r="C43" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="2:5" x14ac:dyDescent="0.2">
@@ -1354,13 +1354,13 @@
         <v>289</v>
       </c>
       <c r="C44" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="2:5" x14ac:dyDescent="0.2">
@@ -1368,13 +1368,13 @@
         <v>57</v>
       </c>
       <c r="C46" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="2:5" x14ac:dyDescent="0.2">
@@ -1382,13 +1382,13 @@
         <v>56</v>
       </c>
       <c r="C47" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="2:5" x14ac:dyDescent="0.2">
@@ -1396,13 +1396,13 @@
         <v>252</v>
       </c>
       <c r="C48" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D48" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="2:6" x14ac:dyDescent="0.2">
@@ -1410,13 +1410,13 @@
         <v>253</v>
       </c>
       <c r="C49" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D49" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="2:6" x14ac:dyDescent="0.2">
@@ -1424,13 +1424,13 @@
         <v>352</v>
       </c>
       <c r="C50" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="2:6" x14ac:dyDescent="0.2">
@@ -1438,13 +1438,13 @@
         <v>239</v>
       </c>
       <c r="C52" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D52" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E52" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="2:6" x14ac:dyDescent="0.2">
@@ -1452,13 +1452,13 @@
         <v>295</v>
       </c>
       <c r="C53" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D53" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E53" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="2:6" x14ac:dyDescent="0.2">
@@ -1466,13 +1466,13 @@
         <v>53</v>
       </c>
       <c r="C54" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D54" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E54" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F54" s="10" t="s">
         <v>0</v>
@@ -1483,13 +1483,13 @@
         <v>325</v>
       </c>
       <c r="C55" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D55" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E55" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="2:6" x14ac:dyDescent="0.2">
@@ -1497,13 +1497,13 @@
         <v>209</v>
       </c>
       <c r="C56" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D56" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="2:6" x14ac:dyDescent="0.2">
@@ -1511,13 +1511,13 @@
         <v>238</v>
       </c>
       <c r="C57" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D57" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E57" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="2:6" x14ac:dyDescent="0.2">
@@ -1525,13 +1525,13 @@
         <v>152</v>
       </c>
       <c r="C58" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D58" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E58" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="2:6" x14ac:dyDescent="0.2">
@@ -1539,13 +1539,13 @@
         <v>228</v>
       </c>
       <c r="C59" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D59" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E59" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="2:6" x14ac:dyDescent="0.2">
@@ -1553,13 +1553,13 @@
         <v>163</v>
       </c>
       <c r="C60" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D60" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E60" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="2:6" x14ac:dyDescent="0.2">
@@ -1567,13 +1567,13 @@
         <v>88</v>
       </c>
       <c r="C62" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D62" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E62" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F62" s="10" t="s">
         <v>0</v>
@@ -1584,13 +1584,13 @@
         <v>75</v>
       </c>
       <c r="C63" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D63" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E63" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="2:6" x14ac:dyDescent="0.2">
@@ -1598,13 +1598,13 @@
         <v>283</v>
       </c>
       <c r="C64" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D64" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E64" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F64" s="10" t="s">
         <v>0</v>
@@ -1615,13 +1615,13 @@
         <v>376</v>
       </c>
       <c r="C65" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D65" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E65" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="2:5" x14ac:dyDescent="0.2">
@@ -1629,13 +1629,13 @@
         <v>280</v>
       </c>
       <c r="C66" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D66" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E66" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="2:5" x14ac:dyDescent="0.2">
@@ -1643,13 +1643,13 @@
         <v>324</v>
       </c>
       <c r="C67" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D67" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E67" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="2:5" x14ac:dyDescent="0.2">
@@ -1657,13 +1657,13 @@
         <v>278</v>
       </c>
       <c r="C68" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D68" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E68" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="2:5" x14ac:dyDescent="0.2">
@@ -1671,13 +1671,13 @@
         <v>35</v>
       </c>
       <c r="C69" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D69" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E69" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="2:5" x14ac:dyDescent="0.2">
@@ -1685,13 +1685,13 @@
         <v>33</v>
       </c>
       <c r="C70" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D70" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E70" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="2:5" x14ac:dyDescent="0.2">
@@ -1699,13 +1699,13 @@
         <v>81</v>
       </c>
       <c r="C71" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D71" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E71" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="2:5" x14ac:dyDescent="0.2">
@@ -1713,13 +1713,13 @@
         <v>153</v>
       </c>
       <c r="C72" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D72" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E72" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73" spans="2:5" x14ac:dyDescent="0.2">
@@ -1727,13 +1727,13 @@
         <v>154</v>
       </c>
       <c r="C73" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D73" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E73" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="2:5" x14ac:dyDescent="0.2">
@@ -1741,13 +1741,13 @@
         <v>162</v>
       </c>
       <c r="C74" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D74" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E74" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="2:5" x14ac:dyDescent="0.2">
@@ -1755,13 +1755,13 @@
         <v>374</v>
       </c>
       <c r="C75" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D75" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E75" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76" spans="2:5" x14ac:dyDescent="0.2">
@@ -1769,13 +1769,13 @@
         <v>34</v>
       </c>
       <c r="C76" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D76" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E76" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77" spans="2:5" x14ac:dyDescent="0.2">
@@ -1783,13 +1783,13 @@
         <v>349</v>
       </c>
       <c r="C77" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D77" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E77" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78" spans="2:5" x14ac:dyDescent="0.2">
@@ -1797,13 +1797,13 @@
         <v>350</v>
       </c>
       <c r="C78" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D78" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E78" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79" spans="2:5" x14ac:dyDescent="0.2">
@@ -1811,13 +1811,13 @@
         <v>315</v>
       </c>
       <c r="C79" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D79" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E79" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80" spans="2:5" x14ac:dyDescent="0.2">
@@ -1825,13 +1825,13 @@
         <v>300</v>
       </c>
       <c r="C80" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D80" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E80" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81" spans="2:6" x14ac:dyDescent="0.2">
@@ -1839,13 +1839,13 @@
         <v>354</v>
       </c>
       <c r="C81" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D81" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E81" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87" spans="2:6" x14ac:dyDescent="0.2">
@@ -1853,13 +1853,13 @@
         <v>28</v>
       </c>
       <c r="C87" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D87" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E87" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F87" s="10" t="s">
         <v>0</v>

--- a/mysol/leetcode_import250.xlsx
+++ b/mysol/leetcode_import250.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10413"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{027088B9-1EFD-C14A-8F14-B93633B8B7D1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E0A73F4-FFB0-0C44-B35A-DE209395F6DD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5100" yWindow="1760" windowWidth="25800" windowHeight="16840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="51">
   <si>
     <t>Done</t>
   </si>
@@ -635,8 +635,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F123"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="140" zoomScaleNormal="110" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="110" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -700,9 +700,6 @@
       <c r="E6" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="F6" s="9" t="s">
-        <v>0</v>
-      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B7" s="5">
@@ -717,9 +714,6 @@
       <c r="E7" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="F7" s="9" t="s">
-        <v>0</v>
-      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B8" s="5">
@@ -731,6 +725,9 @@
       <c r="D8" s="7" t="s">
         <v>10</v>
       </c>
+      <c r="E8" s="5" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B9" s="5">
@@ -742,6 +739,9 @@
       <c r="D9" s="8" t="s">
         <v>9</v>
       </c>
+      <c r="E9" s="5" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B10" s="5">
@@ -753,6 +753,9 @@
       <c r="D10" s="7" t="s">
         <v>10</v>
       </c>
+      <c r="E10" s="5" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B11" s="5">
@@ -763,6 +766,9 @@
       </c>
       <c r="D11" s="11" t="s">
         <v>11</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
@@ -775,6 +781,9 @@
       <c r="D12" s="7" t="s">
         <v>10</v>
       </c>
+      <c r="E12" s="5" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B13" s="5">
@@ -786,6 +795,9 @@
       <c r="D13" s="7" t="s">
         <v>10</v>
       </c>
+      <c r="E13" s="5" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B14" s="5">
@@ -797,6 +809,9 @@
       <c r="D14" s="8" t="s">
         <v>9</v>
       </c>
+      <c r="E14" s="5" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B15" s="5">
@@ -808,6 +823,9 @@
       <c r="D15" s="7" t="s">
         <v>10</v>
       </c>
+      <c r="E15" s="5" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B16" s="5">
@@ -819,8 +837,11 @@
       <c r="D16" s="7" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E16" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B17" s="5">
         <v>18</v>
       </c>
@@ -830,8 +851,11 @@
       <c r="D17" s="7" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E17" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B18" s="5">
         <v>20</v>
       </c>
@@ -841,8 +865,11 @@
       <c r="D18" s="8" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E18" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B19" s="5">
         <v>22</v>
       </c>
@@ -852,8 +879,11 @@
       <c r="D19" s="7" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E19" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B20" s="5">
         <v>23</v>
       </c>
@@ -863,8 +893,11 @@
       <c r="D20" s="11" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E20" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B21" s="5">
         <v>26</v>
       </c>
@@ -874,8 +907,11 @@
       <c r="D21" s="8" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E21" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B22" s="5">
         <v>27</v>
       </c>
@@ -885,8 +921,11 @@
       <c r="D22" s="8" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E22" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B23" s="5">
         <v>28</v>
       </c>
@@ -896,8 +935,11 @@
       <c r="D23" s="8" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E23" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B24" s="5">
         <v>29</v>
       </c>
@@ -907,8 +949,11 @@
       <c r="D24" s="7" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E24" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B25" s="5">
         <v>31</v>
       </c>
@@ -918,8 +963,11 @@
       <c r="D25" s="7" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E25" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B26" s="5">
         <v>32</v>
       </c>
@@ -929,8 +977,11 @@
       <c r="D26" s="11" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E26" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B27" s="5">
         <v>33</v>
       </c>
@@ -940,8 +991,11 @@
       <c r="D27" s="7" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E27" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B28" s="5">
         <v>34</v>
       </c>
@@ -951,8 +1005,11 @@
       <c r="D28" s="7" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E28" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B29" s="5">
         <v>35</v>
       </c>
@@ -962,8 +1019,11 @@
       <c r="D29" s="8" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E29" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B30" s="5">
         <v>36</v>
       </c>
@@ -973,8 +1033,11 @@
       <c r="D30" s="7" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E30" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B31" s="5">
         <v>37</v>
       </c>
@@ -984,8 +1047,11 @@
       <c r="D31" s="11" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E31" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B32" s="5">
         <v>38</v>
       </c>
@@ -995,8 +1061,11 @@
       <c r="D32" s="8" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E32" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B33" s="5">
         <v>39</v>
       </c>
@@ -1006,8 +1075,11 @@
       <c r="D33" s="7" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E33" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B34" s="5">
         <v>40</v>
       </c>
@@ -1017,88 +1089,148 @@
       <c r="D34" s="7" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E34" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B35" s="5">
         <v>41</v>
       </c>
       <c r="C35" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D35" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B36" s="5">
         <v>42</v>
       </c>
       <c r="C36" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D36" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B37" s="5">
         <v>43</v>
       </c>
       <c r="C37" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D37" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B38" s="5">
         <v>44</v>
       </c>
       <c r="C38" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D38" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B39" s="5">
         <v>45</v>
       </c>
       <c r="C39" t="s">
         <v>7</v>
       </c>
-      <c r="D39" s="2"/>
-    </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D39" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B40" s="5">
         <v>46</v>
       </c>
       <c r="C40" t="s">
         <v>46</v>
       </c>
-      <c r="D40" s="1"/>
-    </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D40" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B41" s="5">
         <v>47</v>
       </c>
       <c r="C41" t="s">
         <v>47</v>
       </c>
-      <c r="D41" s="2"/>
-    </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D41" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B42" s="5">
         <v>48</v>
       </c>
       <c r="C42" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D42" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B43" s="5">
         <v>49</v>
       </c>
       <c r="C43" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="44" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D43" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B44" s="5">
         <v>50</v>
       </c>
       <c r="C44" t="s">
         <v>50</v>
+      </c>
+      <c r="D44" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E44" s="5" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="4:4" x14ac:dyDescent="0.2">
